--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE464F18-7F06-42AB-9655-C5A83C8D28B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4373186-EA3C-4209-A9CC-1C90B08253FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="890" windowWidth="18780" windowHeight="9910" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
+    <workbookView xWindow="420" yWindow="880" windowWidth="18780" windowHeight="9920" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Keyword</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Enter Text to delete GAAP Category Profile</t>
+  </si>
+  <si>
+    <t>Enter Text to delete GAAP Gl Account Class Profile</t>
   </si>
 </sst>
 </file>
@@ -695,10 +698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155C1548-3305-4173-92A7-939CD1DB0F71}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -789,6 +792,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4373186-EA3C-4209-A9CC-1C90B08253FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED7D665-3009-4DF7-80C0-B66CBC0DC025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="880" windowWidth="18780" windowHeight="9920" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Keyword</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Enter Text to delete GAAP Gl Account Class Profile</t>
+  </si>
+  <si>
+    <t>Enter Text to delete GAAP Function Profile</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155C1548-3305-4173-92A7-939CD1DB0F71}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -803,6 +806,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED7D665-3009-4DF7-80C0-B66CBC0DC025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7203564A-B14C-4596-9F60-A8B4D799DB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Keyword</t>
   </si>
@@ -131,13 +131,22 @@
   </si>
   <si>
     <t>Enter Text to delete GAAP Function Profile</t>
+  </si>
+  <si>
+    <t>Enter Text to delete Appropriation Function Profile</t>
+  </si>
+  <si>
+    <t>Enter Text to delete State Fund Profile</t>
+  </si>
+  <si>
+    <t>NewTitleEntered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +158,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,13 +241,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,18 +718,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155C1548-3305-4173-92A7-939CD1DB0F71}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -785,37 +803,104 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>92</v>
       </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7203564A-B14C-4596-9F60-A8B4D799DB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34F7228-EF89-4E83-AC90-66BF702C41EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Keyword</t>
   </si>
@@ -140,6 +140,21 @@
   </si>
   <si>
     <t>NewTitleEntered</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>ListView_AfterDelete</t>
+  </si>
+  <si>
+    <t>DeletePopUp</t>
+  </si>
+  <si>
+    <t>Enter Text to delete NACUBO GL Account Class Profile</t>
+  </si>
+  <si>
+    <t>Enter Text to delete NACUBO GL Account Category Profile</t>
   </si>
 </sst>
 </file>
@@ -563,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68ADD78-5E97-442A-9239-32BA9120CDAC}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -685,31 +700,55 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -721,7 +760,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,16 +907,28 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="6">
+        <v>99</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34F7228-EF89-4E83-AC90-66BF702C41EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F2183-6794-4538-874A-2860D7370043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Keyword</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Enter Text to delete NACUBO GL Account Category Profile</t>
+  </si>
+  <si>
+    <t>Enter Text to delete Grant Type Profile</t>
+  </si>
+  <si>
+    <t>Enter Text to delete Grant Category Profile</t>
   </si>
 </sst>
 </file>
@@ -760,7 +766,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -933,16 +939,28 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
